--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E432"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,7 +424,7 @@
         <v>PN</v>
       </c>
       <c r="B2" t="str">
-        <v>65.338150,62.476923</v>
+        <v>50.794653,14.421003</v>
       </c>
       <c r="C2" t="str">
         <v>PN</v>
@@ -441,7 +441,7 @@
         <v>návěstidlo</v>
       </c>
       <c r="B3" t="str">
-        <v>65.338119,62.476935</v>
+        <v>50.794644,14.421051</v>
       </c>
       <c r="C3" t="str">
         <v>návěstidlo</v>
@@ -458,7 +458,7 @@
         <v>PN</v>
       </c>
       <c r="B4" t="str">
-        <v>65.337252,62.484491</v>
+        <v>50.791395,14.421772</v>
       </c>
       <c r="C4" t="str">
         <v>PN</v>
@@ -475,7 +475,7 @@
         <v>trpaslík</v>
       </c>
       <c r="B5" t="str">
-        <v>65.347260,62.479271</v>
+        <v>50.794845,14.406518</v>
       </c>
       <c r="C5" t="str">
         <v>trpaslík</v>
@@ -492,7 +492,7 @@
         <v>PN</v>
       </c>
       <c r="B6" t="str">
-        <v>65.347272,62.479222</v>
+        <v>50.794867,14.406504</v>
       </c>
       <c r="C6" t="str">
         <v>PN</v>
@@ -509,7 +509,7 @@
         <v>přejezdZ</v>
       </c>
       <c r="B7" t="str">
-        <v>65.346852,62.478444</v>
+        <v>50.795136,14.407227</v>
       </c>
       <c r="C7" t="str">
         <v>přejezdZ</v>
@@ -526,7 +526,7 @@
         <v>přejezdZ</v>
       </c>
       <c r="B8" t="str">
-        <v>65.346760,62.478687</v>
+        <v>50.795024,14.407351</v>
       </c>
       <c r="C8" t="str">
         <v>přejezdZ</v>
@@ -543,7 +543,7 @@
         <v>trpaslík</v>
       </c>
       <c r="B9" t="str">
-        <v>65.346704,62.478287</v>
+        <v>50.795182,14.407473</v>
       </c>
       <c r="C9" t="str">
         <v>trpaslík</v>
@@ -560,7 +560,7 @@
         <v>PN</v>
       </c>
       <c r="B10" t="str">
-        <v>65.346661,62.478290</v>
+        <v>50.795176,14.407540</v>
       </c>
       <c r="C10" t="str">
         <v>PN</v>
@@ -577,7 +577,7 @@
         <v>PN</v>
       </c>
       <c r="B11" t="str">
-        <v>65.345876,62.477554</v>
+        <v>50.795380,14.408834</v>
       </c>
       <c r="C11" t="str">
         <v>PN</v>
@@ -594,7 +594,7 @@
         <v>návěstidlo</v>
       </c>
       <c r="B12" t="str">
-        <v>65.345896,62.477509</v>
+        <v>50.795402,14.408806</v>
       </c>
       <c r="C12" t="str">
         <v>návěstidlo</v>
@@ -611,7 +611,7 @@
         <v>návěstidlo</v>
       </c>
       <c r="B13" t="str">
-        <v>65.345534,62.477335</v>
+        <v>50.795428,14.409389</v>
       </c>
       <c r="C13" t="str">
         <v>návěstidlo</v>
@@ -628,7 +628,7 @@
         <v>PN</v>
       </c>
       <c r="B14" t="str">
-        <v>65.345524,62.477383</v>
+        <v>50.795406,14.409400</v>
       </c>
       <c r="C14" t="str">
         <v>PN</v>
@@ -645,7 +645,7 @@
         <v>PN</v>
       </c>
       <c r="B15" t="str">
-        <v>65.345516,62.477478</v>
+        <v>50.795366,14.409405</v>
       </c>
       <c r="C15" t="str">
         <v>PN</v>
@@ -662,7 +662,7 @@
         <v>KS</v>
       </c>
       <c r="B16" t="str">
-        <v>65.345435,62.477153</v>
+        <v>50.795491,14.409559</v>
       </c>
       <c r="C16" t="str">
         <v>KS</v>
@@ -679,7 +679,7 @@
         <v>přejezdZ</v>
       </c>
       <c r="B17" t="str">
-        <v>65.349206,62.485463</v>
+        <v>50.792524,14.402944</v>
       </c>
       <c r="C17" t="str">
         <v>přejezdZ</v>
@@ -696,7 +696,7 @@
         <v>návěstidlo</v>
       </c>
       <c r="B18" t="str">
-        <v>65.349274,62.485668</v>
+        <v>50.792448,14.402820</v>
       </c>
       <c r="C18" t="str">
         <v>návěstidlo</v>
@@ -713,7 +713,7 @@
         <v>přejezdZ</v>
       </c>
       <c r="B19" t="str">
-        <v>65.349293,62.485371</v>
+        <v>50.792573,14.402815</v>
       </c>
       <c r="C19" t="str">
         <v>přejezdZ</v>
@@ -730,7 +730,7 @@
         <v>KS</v>
       </c>
       <c r="B20" t="str">
-        <v>65.349310,62.485383</v>
+        <v>50.792571,14.402788</v>
       </c>
       <c r="C20" t="str">
         <v>KS</v>
@@ -747,7 +747,7 @@
         <v>PN</v>
       </c>
       <c r="B21" t="str">
-        <v>65.349317,62.485583</v>
+        <v>50.792488,14.402760</v>
       </c>
       <c r="C21" t="str">
         <v>PN</v>
@@ -764,7 +764,7 @@
         <v>PN</v>
       </c>
       <c r="B22" t="str">
-        <v>65.339743,62.473528</v>
+        <v>50.796267,14.418793</v>
       </c>
       <c r="C22" t="str">
         <v>PN</v>
@@ -781,7 +781,7 @@
         <v>trpaslík</v>
       </c>
       <c r="B23" t="str">
-        <v>65.339736,62.473469</v>
+        <v>50.796290,14.418808</v>
       </c>
       <c r="C23" t="str">
         <v>trpaslík</v>
@@ -798,7 +798,7 @@
         <v>přejezd</v>
       </c>
       <c r="B24" t="str">
-        <v>65.339844,62.473456</v>
+        <v>50.796309,14.418639</v>
       </c>
       <c r="C24" t="str">
         <v>přejezd</v>
@@ -815,7 +815,7 @@
         <v>přejezdZ</v>
       </c>
       <c r="B25" t="str">
-        <v>65.339939,62.473565</v>
+        <v>50.796276,14.418482</v>
       </c>
       <c r="C25" t="str">
         <v>přejezdZ</v>
@@ -832,7 +832,7 @@
         <v>PN</v>
       </c>
       <c r="B26" t="str">
-        <v>65.339985,62.473689</v>
+        <v>50.796231,14.418398</v>
       </c>
       <c r="C26" t="str">
         <v>PN</v>
@@ -849,7 +849,7 @@
         <v>přejezd</v>
       </c>
       <c r="B27" t="str">
-        <v>65.339786,62.473969</v>
+        <v>50.796089,14.418687</v>
       </c>
       <c r="C27" t="str">
         <v>přejezd</v>
@@ -866,7 +866,7 @@
         <v>přejezdZ</v>
       </c>
       <c r="B28" t="str">
-        <v>65.339673,62.474027</v>
+        <v>50.796050,14.418860</v>
       </c>
       <c r="C28" t="str">
         <v>přejezdZ</v>
@@ -883,7 +883,7 @@
         <v>PN</v>
       </c>
       <c r="B29" t="str">
-        <v>65.339672,62.473902</v>
+        <v>50.796102,14.418873</v>
       </c>
       <c r="C29" t="str">
         <v>PN</v>
@@ -900,7 +900,7 @@
         <v>PN</v>
       </c>
       <c r="B30" t="str">
-        <v>65.340249,62.473884</v>
+        <v>50.796183,14.417968</v>
       </c>
       <c r="C30" t="str">
         <v>PN</v>
@@ -917,7 +917,7 @@
         <v>PN</v>
       </c>
       <c r="B31" t="str">
-        <v>65.340682,62.474258</v>
+        <v>50.796084,14.417258</v>
       </c>
       <c r="C31" t="str">
         <v>PN</v>
@@ -934,7 +934,7 @@
         <v>návěstidlo</v>
       </c>
       <c r="B32" t="str">
-        <v>65.340671,62.474341</v>
+        <v>50.796048,14.417268</v>
       </c>
       <c r="C32" t="str">
         <v>návěstidlo</v>
@@ -951,7 +951,7 @@
         <v>KS</v>
       </c>
       <c r="B33" t="str">
-        <v>65.340859,62.474468</v>
+        <v>50.796019,14.416962</v>
       </c>
       <c r="C33" t="str">
         <v>KS</v>
@@ -968,7 +968,7 @@
         <v>KS</v>
       </c>
       <c r="B34" t="str">
-        <v>65.341342,62.474705</v>
+        <v>50.795983,14.416185</v>
       </c>
       <c r="C34" t="str">
         <v>KS</v>
@@ -985,7 +985,7 @@
         <v>návěstidlo</v>
       </c>
       <c r="B35" t="str">
-        <v>65.341327,62.474642</v>
+        <v>50.796007,14.416213</v>
       </c>
       <c r="C35" t="str">
         <v>návěstidlo</v>
@@ -1002,7 +1002,7 @@
         <v>návěstidlo</v>
       </c>
       <c r="B36" t="str">
-        <v>65.341339,62.474536</v>
+        <v>50.796052,14.416203</v>
       </c>
       <c r="C36" t="str">
         <v>návěstidlo</v>
@@ -1019,7 +1019,7 @@
         <v>PN</v>
       </c>
       <c r="B37" t="str">
-        <v>65.341347,62.474488</v>
+        <v>50.796073,14.416195</v>
       </c>
       <c r="C37" t="str">
         <v>PN</v>
@@ -1036,7 +1036,7 @@
         <v>PN</v>
       </c>
       <c r="B38" t="str">
-        <v>65.341337,62.474587</v>
+        <v>50.796031,14.416202</v>
       </c>
       <c r="C38" t="str">
         <v>PN</v>
@@ -1053,7 +1053,7 @@
         <v>PN</v>
       </c>
       <c r="B39" t="str">
-        <v>65.341543,62.475033</v>
+        <v>50.795872,14.415841</v>
       </c>
       <c r="C39" t="str">
         <v>PN</v>
@@ -1070,7 +1070,7 @@
         <v>PN</v>
       </c>
       <c r="B40" t="str">
-        <v>65.328550,62.463047</v>
+        <v>50.799185,14.437232</v>
       </c>
       <c r="C40" t="str">
         <v>PN</v>
@@ -1087,7 +1087,7 @@
         <v>návěstidlo</v>
       </c>
       <c r="B41" t="str">
-        <v>65.355218,62.488622</v>
+        <v>50.791983,14.393249</v>
       </c>
       <c r="C41" t="str">
         <v>návěstidlo</v>
@@ -1104,7 +1104,7 @@
         <v>PN</v>
       </c>
       <c r="B42" t="str">
-        <v>65.337413,62.471369</v>
+        <v>50.796864,14.422628</v>
       </c>
       <c r="C42" t="str">
         <v>PN</v>
@@ -1121,7 +1121,7 @@
         <v>přejezd</v>
       </c>
       <c r="B43" t="str">
-        <v>65.337182,62.471166</v>
+        <v>50.796919,14.423008</v>
       </c>
       <c r="C43" t="str">
         <v>přejezd</v>
@@ -1138,7 +1138,7 @@
         <v>přejezd</v>
       </c>
       <c r="B44" t="str">
-        <v>65.337229,62.470976</v>
+        <v>50.797004,14.422950</v>
       </c>
       <c r="C44" t="str">
         <v>přejezd</v>
@@ -1155,7 +1155,7 @@
         <v>přejezd</v>
       </c>
       <c r="B45" t="str">
-        <v>65.337274,62.471037</v>
+        <v>50.796985,14.422875</v>
       </c>
       <c r="C45" t="str">
         <v>přejezd</v>
@@ -1172,7 +1172,7 @@
         <v>PN</v>
       </c>
       <c r="B46" t="str">
-        <v>65.337061,62.470886</v>
+        <v>50.797020,14.423221</v>
       </c>
       <c r="C46" t="str">
         <v>PN</v>
@@ -1189,7 +1189,7 @@
         <v>návěstidlo</v>
       </c>
       <c r="B47" t="str">
-        <v>65.337076,62.470802</v>
+        <v>50.797057,14.423204</v>
       </c>
       <c r="C47" t="str">
         <v>návěstidlo</v>
@@ -1206,7 +1206,7 @@
         <v>návěstidlo</v>
       </c>
       <c r="B48" t="str">
-        <v>65.330420,62.461840</v>
+        <v>50.799926,14.434401</v>
       </c>
       <c r="C48" t="str">
         <v>návěstidlo</v>
@@ -1223,7 +1223,7 @@
         <v>výhybka</v>
       </c>
       <c r="B49" t="str">
-        <v>65.347239,62.479212</v>
+        <v>50.794867,14.406556</v>
       </c>
       <c r="C49" t="str">
         <v>výhybka</v>
@@ -1240,7 +1240,7 @@
         <v>výhybka</v>
       </c>
       <c r="B50" t="str">
-        <v>65.346725,62.478333</v>
+        <v>50.795166,14.407437</v>
       </c>
       <c r="C50" t="str">
         <v>výhybka</v>
@@ -1257,7 +1257,7 @@
         <v>výhybka</v>
       </c>
       <c r="B51" t="str">
-        <v>65.346678,62.478461</v>
+        <v>50.795107,14.407500</v>
       </c>
       <c r="C51" t="str">
         <v>výhybka</v>
@@ -1274,7 +1274,7 @@
         <v>výhybka</v>
       </c>
       <c r="B52" t="str">
-        <v>65.346319,62.478097</v>
+        <v>50.795212,14.408094</v>
       </c>
       <c r="C52" t="str">
         <v>výhybka</v>
@@ -1291,7 +1291,7 @@
         <v>výhybka</v>
       </c>
       <c r="B53" t="str">
-        <v>65.340760,62.474165</v>
+        <v>50.796132,14.417143</v>
       </c>
       <c r="C53" t="str">
         <v>výhybka</v>
@@ -1308,7 +1308,7 @@
         <v>výhybka</v>
       </c>
       <c r="B54" t="str">
-        <v>65.340620,62.474255</v>
+        <v>50.796077,14.417356</v>
       </c>
       <c r="C54" t="str">
         <v>výhybka</v>
@@ -1325,7 +1325,7 @@
         <v>výhybka</v>
       </c>
       <c r="B55" t="str">
-        <v>65.340120,62.473740</v>
+        <v>50.796227,14.418183</v>
       </c>
       <c r="C55" t="str">
         <v>výhybka</v>
@@ -1334,12 +1334,6421 @@
         <v>XXX</v>
       </c>
       <c r="E55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B56" t="str">
+        <v>50.803557,14.448597</v>
+      </c>
+      <c r="C56" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D56" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B57" t="str">
+        <v>50.804078,14.449261</v>
+      </c>
+      <c r="C57" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D57" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B58" t="str">
+        <v>50.804176,14.449599</v>
+      </c>
+      <c r="C58" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D58" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B59" t="str">
+        <v>50.809909,14.464345</v>
+      </c>
+      <c r="C59" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D59" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B60" t="str">
+        <v>50.809848,14.464455</v>
+      </c>
+      <c r="C60" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D60" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B61" t="str">
+        <v>50.808585,14.476303</v>
+      </c>
+      <c r="C61" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D61" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B62" t="str">
+        <v>50.808669,14.476325</v>
+      </c>
+      <c r="C62" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D62" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B63" t="str">
+        <v>50.808617,14.476063</v>
+      </c>
+      <c r="C63" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D63" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B64" t="str">
+        <v>50.808739,14.479931</v>
+      </c>
+      <c r="C64" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D64" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B65" t="str">
+        <v>50.808814,14.479840</v>
+      </c>
+      <c r="C65" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D65" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B66" t="str">
+        <v>50.802078,14.445192</v>
+      </c>
+      <c r="C66" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D66" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B67" t="str">
+        <v>50.802128,14.445022</v>
+      </c>
+      <c r="C67" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D67" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B68" t="str">
+        <v>50.803840,14.460101</v>
+      </c>
+      <c r="C68" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D68" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B69" t="str">
+        <v>50.803813,14.460288</v>
+      </c>
+      <c r="C69" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D69" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B70" t="str">
+        <v>50.812183,14.490139</v>
+      </c>
+      <c r="C70" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D70" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B71" t="str">
+        <v>50.811171,14.504528</v>
+      </c>
+      <c r="C71" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D71" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B72" t="str">
+        <v>50.811882,14.505649</v>
+      </c>
+      <c r="C72" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D72" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B73" t="str">
+        <v>50.811151,14.504284</v>
+      </c>
+      <c r="C73" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D73" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B74" t="str">
+        <v>50.811045,14.499296</v>
+      </c>
+      <c r="C74" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D74" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B75" t="str">
+        <v>50.811376,14.498440</v>
+      </c>
+      <c r="C75" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D75" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B76" t="str">
+        <v>50.812162,14.490174</v>
+      </c>
+      <c r="C76" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D76" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B77" t="str">
+        <v>50.812183,14.490139</v>
+      </c>
+      <c r="C77" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D77" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B78" t="str">
+        <v>50.813425,14.514075</v>
+      </c>
+      <c r="C78" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D78" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B79" t="str">
+        <v>50.813418,14.513771</v>
+      </c>
+      <c r="C79" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D79" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E79">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B80" t="str">
+        <v>50.813580,14.511672</v>
+      </c>
+      <c r="C80" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D80" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B81" t="str">
+        <v>50.813666,14.511478</v>
+      </c>
+      <c r="C81" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D81" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B82" t="str">
+        <v>50.813619,14.511354</v>
+      </c>
+      <c r="C82" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D82" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B83" t="str">
+        <v>50.811912,14.505776</v>
+      </c>
+      <c r="C83" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D83" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B84" t="str">
+        <v>50.811920,14.505789</v>
+      </c>
+      <c r="C84" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D84" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E84">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B85" t="str">
+        <v>50.815694,14.521532</v>
+      </c>
+      <c r="C85" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D85" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B86" t="str">
+        <v>50.815753,14.521919</v>
+      </c>
+      <c r="C86" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D86" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E86">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B87" t="str">
+        <v>50.814552,14.532107</v>
+      </c>
+      <c r="C87" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D87" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E87">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B88" t="str">
+        <v>50.829043,14.574149</v>
+      </c>
+      <c r="C88" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D88" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B89" t="str">
+        <v>50.829118,14.574413</v>
+      </c>
+      <c r="C89" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D89" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E89">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B90" t="str">
+        <v>50.823796,14.559669</v>
+      </c>
+      <c r="C90" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D90" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B91" t="str">
+        <v>50.823881,14.559597</v>
+      </c>
+      <c r="C91" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D91" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B92" t="str">
+        <v>50.824563,14.562549</v>
+      </c>
+      <c r="C92" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D92" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E92">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B93" t="str">
+        <v>50.824516,14.562676</v>
+      </c>
+      <c r="C93" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D93" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E93">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B94" t="str">
+        <v>50.825109,14.563775</v>
+      </c>
+      <c r="C94" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D94" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E94">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B95" t="str">
+        <v>50.828509,14.569442</v>
+      </c>
+      <c r="C95" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D95" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B96" t="str">
+        <v>50.828526,14.569134</v>
+      </c>
+      <c r="C96" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D96" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E96">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B97" t="str">
+        <v>50.821402,14.542547</v>
+      </c>
+      <c r="C97" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D97" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E97">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B98" t="str">
+        <v>50.821394,14.542534</v>
+      </c>
+      <c r="C98" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D98" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E98">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B99" t="str">
+        <v>50.837094,14.565584</v>
+      </c>
+      <c r="C99" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D99" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E99">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B100" t="str">
+        <v>50.837004,14.565455</v>
+      </c>
+      <c r="C100" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D100" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E100">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B101" t="str">
+        <v>50.837461,14.565587</v>
+      </c>
+      <c r="C101" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D101" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E101">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B102" t="str">
+        <v>50.846029,14.568834</v>
+      </c>
+      <c r="C102" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D102" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E102">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B103" t="str">
+        <v>50.837580,14.567931</v>
+      </c>
+      <c r="C103" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D103" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B104" t="str">
+        <v>50.837566,14.567890</v>
+      </c>
+      <c r="C104" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D104" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E104">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B105" t="str">
+        <v>50.837537,14.567988</v>
+      </c>
+      <c r="C105" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D105" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E105">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B106" t="str">
+        <v>50.844655,14.569660</v>
+      </c>
+      <c r="C106" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D106" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E106">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="B107" t="str">
+        <v>50.844311,14.569873</v>
+      </c>
+      <c r="C107" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="D107" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E107">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B108" t="str">
+        <v>50.844320,14.569907</v>
+      </c>
+      <c r="C108" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D108" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E108">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B109" t="str">
+        <v>50.843835,14.570199</v>
+      </c>
+      <c r="C109" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D109" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E109">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B110" t="str">
+        <v>50.843844,14.570230</v>
+      </c>
+      <c r="C110" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D110" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E110">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B111" t="str">
+        <v>50.843848,14.570273</v>
+      </c>
+      <c r="C111" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D111" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E111">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B112" t="str">
+        <v>50.843823,14.570169</v>
+      </c>
+      <c r="C112" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D112" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E112">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B113" t="str">
+        <v>50.844548,14.569675</v>
+      </c>
+      <c r="C113" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D113" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E113">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B114" t="str">
+        <v>50.844548,14.569639</v>
+      </c>
+      <c r="C114" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D114" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E114">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B115" t="str">
+        <v>50.844534,14.569579</v>
+      </c>
+      <c r="C115" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D115" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B116" t="str">
+        <v>50.844535,14.569612</v>
+      </c>
+      <c r="C116" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D116" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E116">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B117" t="str">
+        <v>50.845042,14.569526</v>
+      </c>
+      <c r="C117" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D117" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E117">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B118" t="str">
+        <v>50.845056,14.569583</v>
+      </c>
+      <c r="C118" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D118" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E118">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B119" t="str">
+        <v>50.845230,14.569378</v>
+      </c>
+      <c r="C119" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D119" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E119">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B120" t="str">
+        <v>50.845327,14.569293</v>
+      </c>
+      <c r="C120" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D120" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E120">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B121" t="str">
+        <v>50.846027,14.568765</v>
+      </c>
+      <c r="C121" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D121" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E121">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B122" t="str">
+        <v>50.846157,14.568748</v>
+      </c>
+      <c r="C122" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D122" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E122">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="B123" t="str">
+        <v>50.846148,14.568712</v>
+      </c>
+      <c r="C123" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="D123" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E123">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B124" t="str">
+        <v>50.846154,14.568830</v>
+      </c>
+      <c r="C124" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D124" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E124">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B125" t="str">
+        <v>50.847269,14.566664</v>
+      </c>
+      <c r="C125" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D125" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E125">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B126" t="str">
+        <v>50.847304,14.566689</v>
+      </c>
+      <c r="C126" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D126" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E126">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B127" t="str">
+        <v>50.847217,14.566846</v>
+      </c>
+      <c r="C127" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D127" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E127">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B128" t="str">
+        <v>50.841521,14.570074</v>
+      </c>
+      <c r="C128" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D128" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E128">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B129" t="str">
+        <v>50.841505,14.569962</v>
+      </c>
+      <c r="C129" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D129" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E129">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B130" t="str">
+        <v>50.841522,14.569934</v>
+      </c>
+      <c r="C130" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D130" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E130">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B131" t="str">
+        <v>50.841540,14.569870</v>
+      </c>
+      <c r="C131" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D131" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E131">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B132" t="str">
+        <v>50.841522,14.569896</v>
+      </c>
+      <c r="C132" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D132" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E132">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B133" t="str">
+        <v>50.841547,14.569834</v>
+      </c>
+      <c r="C133" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D133" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E133">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B134" t="str">
+        <v>50.841564,14.569802</v>
+      </c>
+      <c r="C134" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D134" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E134">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B135" t="str">
+        <v>50.841596,14.569668</v>
+      </c>
+      <c r="C135" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D135" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E135">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B136" t="str">
+        <v>50.841586,14.569715</v>
+      </c>
+      <c r="C136" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D136" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E136">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B137" t="str">
+        <v>50.841081,14.569396</v>
+      </c>
+      <c r="C137" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D137" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E137">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B138" t="str">
+        <v>50.840956,14.569290</v>
+      </c>
+      <c r="C138" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D138" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E138">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B139" t="str">
+        <v>50.840426,14.568564</v>
+      </c>
+      <c r="C139" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D139" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E139">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B140" t="str">
+        <v>50.840330,14.568305</v>
+      </c>
+      <c r="C140" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D140" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E140">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B141" t="str">
+        <v>50.840256,14.568125</v>
+      </c>
+      <c r="C141" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D141" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E141">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="B142" t="str">
+        <v>50.839698,14.567800</v>
+      </c>
+      <c r="C142" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="D142" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E142">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B143" t="str">
+        <v>50.839716,14.567773</v>
+      </c>
+      <c r="C143" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D143" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E143">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B144" t="str">
+        <v>50.834115,14.571836</v>
+      </c>
+      <c r="C144" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D144" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E144">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B145" t="str">
+        <v>50.834176,14.570980</v>
+      </c>
+      <c r="C145" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D145" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B146" t="str">
+        <v>50.837461,14.565587</v>
+      </c>
+      <c r="C146" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D146" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E146">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B147" t="str">
+        <v>50.837484,14.565568</v>
+      </c>
+      <c r="C147" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D147" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E147">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B148" t="str">
+        <v>50.837480,14.565521</v>
+      </c>
+      <c r="C148" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D148" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E148">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B149" t="str">
+        <v>50.834886,14.577075</v>
+      </c>
+      <c r="C149" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D149" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E149">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B150" t="str">
+        <v>50.834172,14.579722</v>
+      </c>
+      <c r="C150" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D150" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E150">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B151" t="str">
+        <v>50.841364,14.569724</v>
+      </c>
+      <c r="C151" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D151" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E151">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B152" t="str">
+        <v>50.840878,14.569117</v>
+      </c>
+      <c r="C152" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D152" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E152">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B153" t="str">
+        <v>50.840706,14.568782</v>
+      </c>
+      <c r="C153" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D153" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E153">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B154" t="str">
+        <v>50.840641,14.568682</v>
+      </c>
+      <c r="C154" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D154" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E154">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B155" t="str">
+        <v>50.840576,14.568764</v>
+      </c>
+      <c r="C155" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D155" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E155">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B156" t="str">
+        <v>50.839720,14.567803</v>
+      </c>
+      <c r="C156" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D156" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E156">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B157" t="str">
+        <v>50.845156,14.569330</v>
+      </c>
+      <c r="C157" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D157" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E157">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B158" t="str">
+        <v>50.844309,14.569940</v>
+      </c>
+      <c r="C158" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D158" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E158">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B159" t="str">
+        <v>50.846615,14.556997</v>
+      </c>
+      <c r="C159" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D159" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E159">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B160" t="str">
+        <v>50.847218,14.566847</v>
+      </c>
+      <c r="C160" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D160" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E160">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B161" t="str">
+        <v>50.847624,14.564691</v>
+      </c>
+      <c r="C161" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D161" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E161">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B162" t="str">
+        <v>50.847528,14.564768</v>
+      </c>
+      <c r="C162" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D162" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E162">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B163" t="str">
+        <v>50.854696,14.531350</v>
+      </c>
+      <c r="C163" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D163" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E163">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B164" t="str">
+        <v>50.864679,14.530485</v>
+      </c>
+      <c r="C164" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D164" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E164">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B165" t="str">
+        <v>50.847473,14.552990</v>
+      </c>
+      <c r="C165" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D165" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E165">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B166" t="str">
+        <v>50.868047,14.516300</v>
+      </c>
+      <c r="C166" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D166" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E166">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B167" t="str">
+        <v>50.857368,14.532793</v>
+      </c>
+      <c r="C167" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D167" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E167">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B168" t="str">
+        <v>50.864658,14.530503</v>
+      </c>
+      <c r="C168" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D168" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E168">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B169" t="str">
+        <v>50.864679,14.530485</v>
+      </c>
+      <c r="C169" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D169" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E169">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B170" t="str">
+        <v>50.864646,14.530451</v>
+      </c>
+      <c r="C170" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D170" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E170">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="B171" t="str">
+        <v>50.865916,14.529019</v>
+      </c>
+      <c r="C171" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="D171" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E171">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B172" t="str">
+        <v>50.865902,14.528993</v>
+      </c>
+      <c r="C172" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D172" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E172">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B173" t="str">
+        <v>50.865919,14.528926</v>
+      </c>
+      <c r="C173" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D173" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E173">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B174" t="str">
+        <v>50.866447,14.527769</v>
+      </c>
+      <c r="C174" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D174" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E174">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B175" t="str">
+        <v>50.866413,14.527733</v>
+      </c>
+      <c r="C175" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D175" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E175">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B176" t="str">
+        <v>50.866395,14.527623</v>
+      </c>
+      <c r="C176" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D176" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E176">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B177" t="str">
+        <v>50.866394,14.527701</v>
+      </c>
+      <c r="C177" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D177" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E177">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B178" t="str">
+        <v>50.866435,14.527735</v>
+      </c>
+      <c r="C178" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D178" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E178">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B179" t="str">
+        <v>50.866911,14.526113</v>
+      </c>
+      <c r="C179" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D179" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E179">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B180" t="str">
+        <v>50.867033,14.526170</v>
+      </c>
+      <c r="C180" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D180" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E180">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B181" t="str">
+        <v>50.867016,14.525814</v>
+      </c>
+      <c r="C181" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D181" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E181">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B182" t="str">
+        <v>50.867127,14.525795</v>
+      </c>
+      <c r="C182" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D182" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E182">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B183" t="str">
+        <v>50.867398,14.525069</v>
+      </c>
+      <c r="C183" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D183" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E183">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B184" t="str">
+        <v>50.867383,14.524977</v>
+      </c>
+      <c r="C184" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D184" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E184">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B185" t="str">
+        <v>50.867322,14.524918</v>
+      </c>
+      <c r="C185" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D185" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E185">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B186" t="str">
+        <v>50.867369,14.524948</v>
+      </c>
+      <c r="C186" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D186" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E186">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B187" t="str">
+        <v>50.867305,14.524894</v>
+      </c>
+      <c r="C187" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D187" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E187">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="B188" t="str">
+        <v>50.868781,14.519769</v>
+      </c>
+      <c r="C188" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="D188" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E188">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B189" t="str">
+        <v>50.868803,14.519771</v>
+      </c>
+      <c r="C189" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D189" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E189">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B190" t="str">
+        <v>50.868772,14.519799</v>
+      </c>
+      <c r="C190" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D190" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E190">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B191" t="str">
+        <v>50.868784,14.519836</v>
+      </c>
+      <c r="C191" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D191" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E191">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B192" t="str">
+        <v>50.868336,14.521888</v>
+      </c>
+      <c r="C192" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D192" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E192">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B193" t="str">
+        <v>50.868399,14.521938</v>
+      </c>
+      <c r="C193" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D193" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E193">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B194" t="str">
+        <v>50.868260,14.522008</v>
+      </c>
+      <c r="C194" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D194" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E194">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B195" t="str">
+        <v>50.868357,14.521898</v>
+      </c>
+      <c r="C195" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D195" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E195">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B196" t="str">
+        <v>50.868421,14.521948</v>
+      </c>
+      <c r="C196" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D196" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E196">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B197" t="str">
+        <v>50.867430,14.502846</v>
+      </c>
+      <c r="C197" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D197" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E197">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B198" t="str">
+        <v>50.867788,14.515817</v>
+      </c>
+      <c r="C198" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D198" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E198">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B199" t="str">
+        <v>50.867772,14.515853</v>
+      </c>
+      <c r="C199" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D199" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E199">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B200" t="str">
+        <v>50.868047,14.516300</v>
+      </c>
+      <c r="C200" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D200" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E200">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B201" t="str">
+        <v>50.874598,14.502946</v>
+      </c>
+      <c r="C201" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D201" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E201">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B202" t="str">
+        <v>50.866054,14.504705</v>
+      </c>
+      <c r="C202" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D202" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E202">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B203" t="str">
+        <v>50.875492,14.503129</v>
+      </c>
+      <c r="C203" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D203" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E203">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B204" t="str">
+        <v>50.875491,14.503168</v>
+      </c>
+      <c r="C204" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D204" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E204">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B205" t="str">
+        <v>50.875042,14.503210</v>
+      </c>
+      <c r="C205" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D205" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E205">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B206" t="str">
+        <v>50.874832,14.503156</v>
+      </c>
+      <c r="C206" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D206" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E206">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B207" t="str">
+        <v>50.874706,14.502985</v>
+      </c>
+      <c r="C207" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D207" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E207">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B208" t="str">
+        <v>50.874646,14.503022</v>
+      </c>
+      <c r="C208" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D208" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E208">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B209" t="str">
+        <v>50.874638,14.503065</v>
+      </c>
+      <c r="C209" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D209" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E209">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B210" t="str">
+        <v>50.874598,14.502946</v>
+      </c>
+      <c r="C210" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D210" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E210">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B211" t="str">
+        <v>50.880536,14.504734</v>
+      </c>
+      <c r="C211" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D211" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E211">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="B212" t="str">
+        <v>50.880519,14.504756</v>
+      </c>
+      <c r="C212" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="D212" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E212">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B213" t="str">
+        <v>50.880549,14.504788</v>
+      </c>
+      <c r="C213" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D213" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E213">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B214" t="str">
+        <v>50.880913,14.505201</v>
+      </c>
+      <c r="C214" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D214" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E214">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B215" t="str">
+        <v>50.880862,14.505370</v>
+      </c>
+      <c r="C215" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D215" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E215">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B216" t="str">
+        <v>50.880903,14.505368</v>
+      </c>
+      <c r="C216" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D216" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E216">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B217" t="str">
+        <v>50.881020,14.505417</v>
+      </c>
+      <c r="C217" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D217" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E217">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B218" t="str">
+        <v>50.881371,14.506393</v>
+      </c>
+      <c r="C218" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D218" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E218">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B219" t="str">
+        <v>50.881572,14.506656</v>
+      </c>
+      <c r="C219" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D219" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E219">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B220" t="str">
+        <v>50.881586,14.506626</v>
+      </c>
+      <c r="C220" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D220" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E220">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B221" t="str">
+        <v>50.881620,14.506585</v>
+      </c>
+      <c r="C221" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D221" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E221">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B222" t="str">
+        <v>50.881657,14.506542</v>
+      </c>
+      <c r="C222" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D222" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E222">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B223" t="str">
+        <v>50.881604,14.506610</v>
+      </c>
+      <c r="C223" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D223" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E223">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B224" t="str">
+        <v>50.881641,14.506575</v>
+      </c>
+      <c r="C224" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D224" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E224">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B225" t="str">
+        <v>50.881725,14.507153</v>
+      </c>
+      <c r="C225" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D225" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E225">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B226" t="str">
+        <v>50.881708,14.507185</v>
+      </c>
+      <c r="C226" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D226" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E226">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B227" t="str">
+        <v>50.881723,14.507413</v>
+      </c>
+      <c r="C227" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D227" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E227">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B228" t="str">
+        <v>50.881773,14.507428</v>
+      </c>
+      <c r="C228" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D228" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E228">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B229" t="str">
+        <v>50.882511,14.508083</v>
+      </c>
+      <c r="C229" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D229" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E229">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B230" t="str">
+        <v>50.882474,14.508130</v>
+      </c>
+      <c r="C230" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D230" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E230">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B231" t="str">
+        <v>50.883026,14.510093</v>
+      </c>
+      <c r="C231" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D231" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E231">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B232" t="str">
+        <v>50.883630,14.510557</v>
+      </c>
+      <c r="C232" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D232" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E232">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B233" t="str">
+        <v>50.883665,14.510522</v>
+      </c>
+      <c r="C233" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D233" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E233">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="B234" t="str">
+        <v>50.883616,14.510508</v>
+      </c>
+      <c r="C234" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="D234" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E234">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B235" t="str">
+        <v>50.883577,14.510549</v>
+      </c>
+      <c r="C235" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D235" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E235">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B236" t="str">
+        <v>50.883594,14.510523</v>
+      </c>
+      <c r="C236" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D236" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E236">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B237" t="str">
+        <v>50.883635,14.510485</v>
+      </c>
+      <c r="C237" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D237" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E237">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B238" t="str">
+        <v>50.883841,14.511081</v>
+      </c>
+      <c r="C238" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D238" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E238">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B239" t="str">
+        <v>50.883861,14.511089</v>
+      </c>
+      <c r="C239" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D239" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E239">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B240" t="str">
+        <v>50.883752,14.511089</v>
+      </c>
+      <c r="C240" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D240" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E240">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B241" t="str">
+        <v>50.883738,14.511112</v>
+      </c>
+      <c r="C241" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D241" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E241">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B242" t="str">
+        <v>50.883807,14.511389</v>
+      </c>
+      <c r="C242" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D242" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E242">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B243" t="str">
+        <v>50.883828,14.511359</v>
+      </c>
+      <c r="C243" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D243" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E243">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B244" t="str">
+        <v>50.883829,14.511517</v>
+      </c>
+      <c r="C244" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D244" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E244">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B245" t="str">
+        <v>50.883810,14.511543</v>
+      </c>
+      <c r="C245" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D245" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E245">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B246" t="str">
+        <v>50.883774,14.511593</v>
+      </c>
+      <c r="C246" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D246" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E246">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B247" t="str">
+        <v>50.883791,14.511566</v>
+      </c>
+      <c r="C247" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D247" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E247">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B248" t="str">
+        <v>50.883822,14.511895</v>
+      </c>
+      <c r="C248" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D248" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E248">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B249" t="str">
+        <v>50.883949,14.511965</v>
+      </c>
+      <c r="C249" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D249" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E249">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B250" t="str">
+        <v>50.884059,14.511772</v>
+      </c>
+      <c r="C250" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D250" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E250">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B251" t="str">
+        <v>50.884171,14.512125</v>
+      </c>
+      <c r="C251" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D251" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E251">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B252" t="str">
+        <v>50.884137,14.512284</v>
+      </c>
+      <c r="C252" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D252" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E252">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B253" t="str">
+        <v>50.884308,14.512434</v>
+      </c>
+      <c r="C253" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D253" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E253">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B254" t="str">
+        <v>50.884456,14.512892</v>
+      </c>
+      <c r="C254" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D254" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E254">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B255" t="str">
+        <v>50.884476,14.512978</v>
+      </c>
+      <c r="C255" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D255" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E255">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B256" t="str">
+        <v>50.884514,14.513019</v>
+      </c>
+      <c r="C256" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D256" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E256">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B257" t="str">
+        <v>50.884466,14.513072</v>
+      </c>
+      <c r="C257" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D257" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E257">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B258" t="str">
+        <v>50.884441,14.513086</v>
+      </c>
+      <c r="C258" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D258" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E258">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B259" t="str">
+        <v>50.884676,14.513475</v>
+      </c>
+      <c r="C259" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D259" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E259">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B260" t="str">
+        <v>50.884834,14.513963</v>
+      </c>
+      <c r="C260" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D260" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E260">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B261" t="str">
+        <v>50.884851,14.514103</v>
+      </c>
+      <c r="C261" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D261" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E261">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B262" t="str">
+        <v>50.884933,14.513852</v>
+      </c>
+      <c r="C262" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D262" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E262">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B263" t="str">
+        <v>50.885114,14.514259</v>
+      </c>
+      <c r="C263" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D263" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E263">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="B264" t="str">
+        <v>50.885129,14.514232</v>
+      </c>
+      <c r="C264" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="D264" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E264">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="B265" t="str">
+        <v>50.884983,14.514346</v>
+      </c>
+      <c r="C265" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="D265" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E265">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B266" t="str">
+        <v>50.884959,14.514353</v>
+      </c>
+      <c r="C266" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D266" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E266">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B267" t="str">
+        <v>50.885061,14.515233</v>
+      </c>
+      <c r="C267" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D267" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E267">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="B268" t="str">
+        <v>50.885036,14.515232</v>
+      </c>
+      <c r="C268" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="D268" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E268">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B269" t="str">
+        <v>50.885068,14.515446</v>
+      </c>
+      <c r="C269" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D269" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E269">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B270" t="str">
+        <v>50.895893,14.515554</v>
+      </c>
+      <c r="C270" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D270" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E270">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B271" t="str">
+        <v>50.889689,14.516703</v>
+      </c>
+      <c r="C271" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D271" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E271">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B272" t="str">
+        <v>50.889648,14.516649</v>
+      </c>
+      <c r="C272" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D272" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E272">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B273" t="str">
+        <v>50.889682,14.516631</v>
+      </c>
+      <c r="C273" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D273" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E273">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B274" t="str">
+        <v>50.868284,14.502533</v>
+      </c>
+      <c r="C274" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D274" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E274">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B275" t="str">
+        <v>50.884292,14.521063</v>
+      </c>
+      <c r="C275" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D275" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E275">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B276" t="str">
+        <v>50.884325,14.521081</v>
+      </c>
+      <c r="C276" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D276" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E276">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B277" t="str">
+        <v>50.884357,14.520941</v>
+      </c>
+      <c r="C277" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D277" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E277">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B278" t="str">
+        <v>50.914873,14.518898</v>
+      </c>
+      <c r="C278" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D278" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E278">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B279" t="str">
+        <v>50.899752,14.514530</v>
+      </c>
+      <c r="C279" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D279" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E279">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B280" t="str">
+        <v>50.889648,14.516649</v>
+      </c>
+      <c r="C280" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D280" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E280">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B281" t="str">
+        <v>50.917049,14.513856</v>
+      </c>
+      <c r="C281" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D281" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E281">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B282" t="str">
+        <v>50.917063,14.513844</v>
+      </c>
+      <c r="C282" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D282" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E282">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B283" t="str">
+        <v>50.917670,14.513357</v>
+      </c>
+      <c r="C283" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D283" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E283">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B284" t="str">
+        <v>50.917453,14.513666</v>
+      </c>
+      <c r="C284" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D284" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E284">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B285" t="str">
+        <v>50.917097,14.513922</v>
+      </c>
+      <c r="C285" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D285" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E285">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B286" t="str">
+        <v>50.916875,14.514087</v>
+      </c>
+      <c r="C286" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D286" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E286">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B287" t="str">
+        <v>50.916886,14.514166</v>
+      </c>
+      <c r="C287" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D287" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E287">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B288" t="str">
+        <v>50.916801,14.514086</v>
+      </c>
+      <c r="C288" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D288" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E288">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B289" t="str">
+        <v>50.916675,14.514198</v>
+      </c>
+      <c r="C289" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D289" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E289">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B290" t="str">
+        <v>50.916645,14.514222</v>
+      </c>
+      <c r="C290" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D290" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E290">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B291" t="str">
+        <v>50.916659,14.514341</v>
+      </c>
+      <c r="C291" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D291" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E291">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B292" t="str">
+        <v>50.916703,14.514250</v>
+      </c>
+      <c r="C292" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D292" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E292">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B293" t="str">
+        <v>50.916793,14.514270</v>
+      </c>
+      <c r="C293" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D293" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E293">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B294" t="str">
+        <v>50.916740,14.514336</v>
+      </c>
+      <c r="C294" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D294" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E294">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B295" t="str">
+        <v>50.917695,14.513375</v>
+      </c>
+      <c r="C295" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D295" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E295">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B296" t="str">
+        <v>50.917977,14.513169</v>
+      </c>
+      <c r="C296" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D296" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E296">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B297" t="str">
+        <v>50.917997,14.513228</v>
+      </c>
+      <c r="C297" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D297" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E297">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B298" t="str">
+        <v>50.917992,14.513196</v>
+      </c>
+      <c r="C298" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D298" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E298">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B299" t="str">
+        <v>50.918017,14.513249</v>
+      </c>
+      <c r="C299" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D299" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E299">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B300" t="str">
+        <v>50.922502,14.509245</v>
+      </c>
+      <c r="C300" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D300" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E300">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B301" t="str">
+        <v>50.922524,14.509276</v>
+      </c>
+      <c r="C301" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D301" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E301">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B302" t="str">
+        <v>50.922483,14.509330</v>
+      </c>
+      <c r="C302" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D302" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E302">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B303" t="str">
+        <v>50.922381,14.509293</v>
+      </c>
+      <c r="C303" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D303" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E303">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B304" t="str">
+        <v>50.922290,14.509429</v>
+      </c>
+      <c r="C304" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D304" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E304">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B305" t="str">
+        <v>50.922197,14.509553</v>
+      </c>
+      <c r="C305" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D305" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E305">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B306" t="str">
+        <v>50.921877,14.509699</v>
+      </c>
+      <c r="C306" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D306" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E306">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B307" t="str">
+        <v>50.921798,14.509767</v>
+      </c>
+      <c r="C307" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D307" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E307">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B308" t="str">
+        <v>50.921899,14.509943</v>
+      </c>
+      <c r="C308" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D308" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E308">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B309" t="str">
+        <v>50.921331,14.510110</v>
+      </c>
+      <c r="C309" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D309" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E309">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B310" t="str">
+        <v>50.921252,14.510202</v>
+      </c>
+      <c r="C310" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D310" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E310">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="B311" t="str">
+        <v>50.921257,14.510233</v>
+      </c>
+      <c r="C311" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="D311" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E311">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B312" t="str">
+        <v>50.921258,14.510267</v>
+      </c>
+      <c r="C312" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D312" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E312">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B313" t="str">
+        <v>50.921281,14.510326</v>
+      </c>
+      <c r="C313" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D313" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E313">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B314" t="str">
+        <v>50.921300,14.510387</v>
+      </c>
+      <c r="C314" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D314" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E314">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B315" t="str">
+        <v>50.921271,14.510531</v>
+      </c>
+      <c r="C315" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D315" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E315">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B316" t="str">
+        <v>50.921277,14.510290</v>
+      </c>
+      <c r="C316" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D316" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E316">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B317" t="str">
+        <v>50.921299,14.510350</v>
+      </c>
+      <c r="C317" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D317" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E317">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B318" t="str">
+        <v>50.921320,14.510410</v>
+      </c>
+      <c r="C318" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D318" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E318">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B319" t="str">
+        <v>50.930203,14.519801</v>
+      </c>
+      <c r="C319" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D319" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E319">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B320" t="str">
+        <v>50.925135,14.509080</v>
+      </c>
+      <c r="C320" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D320" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E320">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B321" t="str">
+        <v>50.925142,14.509098</v>
+      </c>
+      <c r="C321" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D321" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E321">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B322" t="str">
+        <v>50.925119,14.509154</v>
+      </c>
+      <c r="C322" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D322" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E322">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B323" t="str">
+        <v>50.914873,14.518898</v>
+      </c>
+      <c r="C323" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D323" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E323">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B324" t="str">
+        <v>50.914878,14.518824</v>
+      </c>
+      <c r="C324" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D324" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E324">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B325" t="str">
+        <v>50.914905,14.518858</v>
+      </c>
+      <c r="C325" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D325" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E325">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B326" t="str">
+        <v>50.915018,14.518507</v>
+      </c>
+      <c r="C326" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D326" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E326">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B327" t="str">
+        <v>50.915140,14.518471</v>
+      </c>
+      <c r="C327" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D327" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E327">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B328" t="str">
+        <v>50.915133,14.518381</v>
+      </c>
+      <c r="C328" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D328" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E328">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B329" t="str">
+        <v>50.909761,14.513779</v>
+      </c>
+      <c r="C329" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D329" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E329">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B330" t="str">
+        <v>50.923658,14.506880</v>
+      </c>
+      <c r="C330" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D330" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E330">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B331" t="str">
+        <v>50.923320,14.508196</v>
+      </c>
+      <c r="C331" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D331" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E331">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B332" t="str">
+        <v>50.923301,14.508163</v>
+      </c>
+      <c r="C332" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D332" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E332">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B333" t="str">
+        <v>50.955892,14.542153</v>
+      </c>
+      <c r="C333" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D333" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E333">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B334" t="str">
+        <v>50.948555,14.534206</v>
+      </c>
+      <c r="C334" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D334" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E334">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B335" t="str">
+        <v>50.948497,14.534286</v>
+      </c>
+      <c r="C335" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D335" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E335">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B336" t="str">
+        <v>50.948441,14.534193</v>
+      </c>
+      <c r="C336" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D336" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E336">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B337" t="str">
+        <v>50.948390,14.534269</v>
+      </c>
+      <c r="C337" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D337" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E337">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B338" t="str">
+        <v>50.940167,14.535531</v>
+      </c>
+      <c r="C338" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D338" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E338">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B339" t="str">
+        <v>50.925142,14.509098</v>
+      </c>
+      <c r="C339" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D339" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E339">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B340" t="str">
+        <v>50.955948,14.542088</v>
+      </c>
+      <c r="C340" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D340" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E340">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B341" t="str">
+        <v>50.955966,14.542052</v>
+      </c>
+      <c r="C341" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D341" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E341">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B342" t="str">
+        <v>50.955884,14.542122</v>
+      </c>
+      <c r="C342" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D342" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E342">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B343" t="str">
+        <v>50.955892,14.542153</v>
+      </c>
+      <c r="C343" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D343" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E343">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B344" t="str">
+        <v>50.955916,14.542124</v>
+      </c>
+      <c r="C344" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D344" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E344">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B345" t="str">
+        <v>50.956668,14.544316</v>
+      </c>
+      <c r="C345" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D345" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E345">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B346" t="str">
+        <v>50.956719,14.544392</v>
+      </c>
+      <c r="C346" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D346" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E346">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B347" t="str">
+        <v>50.956693,14.544373</v>
+      </c>
+      <c r="C347" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D347" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E347">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B348" t="str">
+        <v>50.956704,14.544372</v>
+      </c>
+      <c r="C348" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D348" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E348">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B349" t="str">
+        <v>50.956645,14.544332</v>
+      </c>
+      <c r="C349" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D349" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E349">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="B350" t="str">
+        <v>50.956626,14.544333</v>
+      </c>
+      <c r="C350" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="D350" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E350">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="B351" t="str">
+        <v>50.956581,14.544352</v>
+      </c>
+      <c r="C351" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="D351" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E351">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B352" t="str">
+        <v>50.956606,14.544353</v>
+      </c>
+      <c r="C352" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D352" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E352">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B353" t="str">
+        <v>50.956548,14.544248</v>
+      </c>
+      <c r="C353" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D353" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E353">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B354" t="str">
+        <v>50.957008,14.543025</v>
+      </c>
+      <c r="C354" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D354" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E354">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B355" t="str">
+        <v>50.957100,14.543027</v>
+      </c>
+      <c r="C355" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D355" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E355">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B356" t="str">
+        <v>50.957062,14.543104</v>
+      </c>
+      <c r="C356" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D356" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E356">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B357" t="str">
+        <v>50.956760,14.544621</v>
+      </c>
+      <c r="C357" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D357" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E357">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B358" t="str">
+        <v>50.956795,14.544756</v>
+      </c>
+      <c r="C358" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D358" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E358">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="B359" t="str">
+        <v>50.956625,14.545061</v>
+      </c>
+      <c r="C359" t="str">
+        <v>přejezdZ</v>
+      </c>
+      <c r="D359" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E359">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B360" t="str">
+        <v>50.956787,14.544938</v>
+      </c>
+      <c r="C360" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D360" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E360">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="B361" t="str">
+        <v>50.956619,14.544884</v>
+      </c>
+      <c r="C361" t="str">
+        <v>přejezd</v>
+      </c>
+      <c r="D361" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E361">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B362" t="str">
+        <v>50.956700,14.545105</v>
+      </c>
+      <c r="C362" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D362" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E362">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B363" t="str">
+        <v>50.956664,14.545341</v>
+      </c>
+      <c r="C363" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D363" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E363">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B364" t="str">
+        <v>50.956747,14.545669</v>
+      </c>
+      <c r="C364" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D364" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E364">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B365" t="str">
+        <v>50.956770,14.545747</v>
+      </c>
+      <c r="C365" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D365" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E365">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B366" t="str">
+        <v>50.956733,14.545718</v>
+      </c>
+      <c r="C366" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D366" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E366">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B367" t="str">
+        <v>50.956708,14.545710</v>
+      </c>
+      <c r="C367" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D367" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E367">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B368" t="str">
+        <v>50.956756,14.545943</v>
+      </c>
+      <c r="C368" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D368" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E368">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B369" t="str">
+        <v>50.956772,14.546188</v>
+      </c>
+      <c r="C369" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D369" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E369">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B370" t="str">
+        <v>50.956807,14.546653</v>
+      </c>
+      <c r="C370" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D370" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E370">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B371" t="str">
+        <v>50.956827,14.546682</v>
+      </c>
+      <c r="C371" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D371" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E371">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B372" t="str">
+        <v>50.956744,14.546605</v>
+      </c>
+      <c r="C372" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D372" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E372">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B373" t="str">
+        <v>50.956711,14.546414</v>
+      </c>
+      <c r="C373" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D373" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E373">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B374" t="str">
+        <v>50.957735,14.541570</v>
+      </c>
+      <c r="C374" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D374" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E374">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B375" t="str">
+        <v>50.957734,14.541628</v>
+      </c>
+      <c r="C375" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D375" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E375">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B376" t="str">
+        <v>50.957701,14.541609</v>
+      </c>
+      <c r="C376" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D376" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E376">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B377" t="str">
+        <v>50.960564,14.537054</v>
+      </c>
+      <c r="C377" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D377" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E377">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B378" t="str">
+        <v>50.952390,14.533977</v>
+      </c>
+      <c r="C378" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D378" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E378">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B379" t="str">
+        <v>50.954068,14.535283</v>
+      </c>
+      <c r="C379" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D379" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E379">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B380" t="str">
+        <v>50.954509,14.534106</v>
+      </c>
+      <c r="C380" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D380" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E380">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B381" t="str">
+        <v>50.956751,14.547168</v>
+      </c>
+      <c r="C381" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D381" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E381">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B382" t="str">
+        <v>50.956888,14.547144</v>
+      </c>
+      <c r="C382" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D382" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E382">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B383" t="str">
+        <v>50.956949,14.547601</v>
+      </c>
+      <c r="C383" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D383" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E383">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B384" t="str">
+        <v>50.956875,14.547667</v>
+      </c>
+      <c r="C384" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D384" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E384">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B385" t="str">
+        <v>50.956791,14.547673</v>
+      </c>
+      <c r="C385" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D385" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E385">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B386" t="str">
+        <v>50.956749,14.547673</v>
+      </c>
+      <c r="C386" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D386" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E386">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B387" t="str">
+        <v>50.956769,14.547657</v>
+      </c>
+      <c r="C387" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D387" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E387">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B388" t="str">
+        <v>50.956817,14.547655</v>
+      </c>
+      <c r="C388" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D388" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E388">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B389" t="str">
+        <v>50.956896,14.547651</v>
+      </c>
+      <c r="C389" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D389" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E389">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B390" t="str">
+        <v>50.956960,14.548330</v>
+      </c>
+      <c r="C390" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D390" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E390">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B391" t="str">
+        <v>50.957011,14.548583</v>
+      </c>
+      <c r="C391" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D391" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E391">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B392" t="str">
+        <v>50.956990,14.548600</v>
+      </c>
+      <c r="C392" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D392" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E392">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B393" t="str">
+        <v>50.956939,14.548341</v>
+      </c>
+      <c r="C393" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D393" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E393">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B394" t="str">
+        <v>50.957023,14.548400</v>
+      </c>
+      <c r="C394" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D394" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E394">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="B395" t="str">
+        <v>50.957046,14.548403</v>
+      </c>
+      <c r="C395" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="D395" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E395">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B396" t="str">
+        <v>50.957036,14.548362</v>
+      </c>
+      <c r="C396" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D396" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E396">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B397" t="str">
+        <v>50.956993,14.552618</v>
+      </c>
+      <c r="C397" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D397" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E397">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="B398" t="str">
+        <v>50.957175,14.552514</v>
+      </c>
+      <c r="C398" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="D398" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E398">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B399" t="str">
+        <v>50.957149,14.552522</v>
+      </c>
+      <c r="C399" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D399" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E399">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B400" t="str">
+        <v>50.957203,14.552516</v>
+      </c>
+      <c r="C400" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D400" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E400">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B401" t="str">
+        <v>50.957212,14.552606</v>
+      </c>
+      <c r="C401" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D401" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E401">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B402" t="str">
+        <v>50.957220,14.552646</v>
+      </c>
+      <c r="C402" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D402" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E402">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B403" t="str">
+        <v>50.957167,14.552606</v>
+      </c>
+      <c r="C403" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D403" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E403">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B404" t="str">
+        <v>50.957127,14.552516</v>
+      </c>
+      <c r="C404" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D404" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E404">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B405" t="str">
+        <v>50.957093,14.552816</v>
+      </c>
+      <c r="C405" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D405" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E405">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B406" t="str">
+        <v>50.957113,14.552809</v>
+      </c>
+      <c r="C406" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D406" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E406">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B407" t="str">
+        <v>50.957080,14.553136</v>
+      </c>
+      <c r="C407" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D407" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E407">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B408" t="str">
+        <v>50.957059,14.553145</v>
+      </c>
+      <c r="C408" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D408" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E408">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B409" t="str">
+        <v>50.957156,14.553375</v>
+      </c>
+      <c r="C409" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D409" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E409">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B410" t="str">
+        <v>50.957128,14.553765</v>
+      </c>
+      <c r="C410" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D410" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E410">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B411" t="str">
+        <v>50.957101,14.554149</v>
+      </c>
+      <c r="C411" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D411" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E411">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B412" t="str">
+        <v>50.957050,14.553605</v>
+      </c>
+      <c r="C412" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D412" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E412">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B413" t="str">
+        <v>50.957029,14.553619</v>
+      </c>
+      <c r="C413" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D413" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E413">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B414" t="str">
+        <v>50.956946,14.553643</v>
+      </c>
+      <c r="C414" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D414" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E414">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B415" t="str">
+        <v>50.956897,14.553391</v>
+      </c>
+      <c r="C415" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D415" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E415">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B416" t="str">
+        <v>50.956917,14.553378</v>
+      </c>
+      <c r="C416" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D416" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E416">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B417" t="str">
+        <v>50.956883,14.553568</v>
+      </c>
+      <c r="C417" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D417" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E417">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B418" t="str">
+        <v>50.956850,14.553569</v>
+      </c>
+      <c r="C418" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D418" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E418">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B419" t="str">
+        <v>50.956901,14.553637</v>
+      </c>
+      <c r="C419" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D419" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E419">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B420" t="str">
+        <v>50.956967,14.553650</v>
+      </c>
+      <c r="C420" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D420" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E420">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B421" t="str">
+        <v>50.956868,14.553938</v>
+      </c>
+      <c r="C421" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D421" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E421">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B422" t="str">
+        <v>50.957080,14.554219</v>
+      </c>
+      <c r="C422" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D422" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E422">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B423" t="str">
+        <v>50.956959,14.554528</v>
+      </c>
+      <c r="C423" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D423" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E423">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B424" t="str">
+        <v>50.957068,14.554670</v>
+      </c>
+      <c r="C424" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D424" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E424">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B425" t="str">
+        <v>50.956996,14.554990</v>
+      </c>
+      <c r="C425" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D425" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E425">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B426" t="str">
+        <v>50.957016,14.555055</v>
+      </c>
+      <c r="C426" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D426" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E426">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="B427" t="str">
+        <v>50.957063,14.555831</v>
+      </c>
+      <c r="C427" t="str">
+        <v>výhybka</v>
+      </c>
+      <c r="D427" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E427">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B428" t="str">
+        <v>50.957125,14.555878</v>
+      </c>
+      <c r="C428" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D428" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E428">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>PN</v>
+      </c>
+      <c r="B429" t="str">
+        <v>50.957085,14.555887</v>
+      </c>
+      <c r="C429" t="str">
+        <v>PN</v>
+      </c>
+      <c r="D429" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E429">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="B430" t="str">
+        <v>50.957267,14.556730</v>
+      </c>
+      <c r="C430" t="str">
+        <v>trpaslík</v>
+      </c>
+      <c r="D430" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E430">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="B431" t="str">
+        <v>50.957536,14.557836</v>
+      </c>
+      <c r="C431" t="str">
+        <v>návěstidlo</v>
+      </c>
+      <c r="D431" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E431">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>KS</v>
+      </c>
+      <c r="B432" t="str">
+        <v>50.957052,14.548296</v>
+      </c>
+      <c r="C432" t="str">
+        <v>KS</v>
+      </c>
+      <c r="D432" t="str">
+        <v>XXX</v>
+      </c>
+      <c r="E432">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E55"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E432"/>
   </ignoredErrors>
 </worksheet>
 </file>